--- a/model_exports/labels/2.0_True_False_2_4.xlsx
+++ b/model_exports/labels/2.0_True_False_2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,20 +466,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,20 +505,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,24 +531,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,33 +557,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,37 +622,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -661,20 +661,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,46 +700,46 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,20 +752,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,59 +778,59 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,11 +843,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,24 +869,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,33 +960,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,37 +1012,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1051,59 +1051,59 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1155,37 +1155,37 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,33 +1220,33 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,11 +1259,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,24 +1272,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,76 +1298,76 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1376,24 +1376,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,46 +1428,46 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,59 +1480,59 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,24 +1545,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,20 +1571,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,46 +1610,46 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,33 +1675,33 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,46 +1714,46 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,37 +1818,37 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,20 +1857,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,24 +1883,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,20 +1909,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,37 +1948,37 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,33 +2000,33 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,20 +2039,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,24 +2065,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2104,11 +2104,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,11 +2117,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,24 +2130,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -2156,20 +2156,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2195,50 +2195,50 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,24 +2247,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2273,37 +2273,37 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2312,46 +2312,46 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,46 +2416,46 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,46 +2494,46 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,20 +2546,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,24 +2585,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,59 +2611,59 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,98 +2689,98 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-1006535367464509440</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-1006670876169949190</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,11 +2832,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,11 +2858,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2871,11 +2871,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2884,11 +2884,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2897,33 +2897,33 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-910451192064614401</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,11 +2936,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,37 +2962,37 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,24 +3040,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,11 +3066,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3079,20 +3079,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,46 +3105,46 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,20 +3157,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,33 +3196,33 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,20 +3235,20 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,20 +3274,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,11 +3313,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -3326,24 +3326,24 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3391,11 +3391,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,76 +3443,76 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,11 +3547,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3560,20 +3560,20 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,20 +3586,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,11 +3612,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,33 +3651,33 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,50 +3690,50 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3781,33 +3781,33 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,20 +3833,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,24 +3872,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3898,72 +3898,72 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,20 +4002,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,20 +4041,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,11 +4080,11 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4093,20 +4093,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,46 +4145,46 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,20 +4197,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,33 +4223,33 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,11 +4262,11 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,20 +4275,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,33 +4301,33 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,33 +4366,33 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,11 +4405,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -4418,11 +4418,11 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,20 +4444,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,24 +4470,24 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -4496,20 +4496,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,20 +4548,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,33 +4574,33 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,20 +4626,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,63 +4652,63 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,7 +4717,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,11 +4730,11 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,11 +4743,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4795,59 +4795,59 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,11 +4860,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,24 +4977,24 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5003,46 +5003,46 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,20 +5055,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,24 +5081,24 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -5107,11 +5107,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -5120,20 +5120,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,11 +5146,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -5159,20 +5159,20 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,72 +5211,72 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,33 +5341,33 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,76 +5380,76 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,20 +5471,20 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,59 +5510,59 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,24 +5627,24 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -5653,46 +5653,46 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,33 +5705,33 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,33 +5744,33 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B410" t="n">
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,37 +5783,37 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -5822,24 +5822,24 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,50 +5874,50 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-933614181286318081</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-933625586442035205</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5926,24 +5926,24 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5952,11 +5952,11 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5965,20 +5965,20 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,33 +6004,33 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,7 +6043,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,11 +6056,11 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,20 +6069,20 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,76 +6108,76 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,63 +6186,63 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -6251,46 +6251,46 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,24 +6316,24 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -6342,11 +6342,11 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -6355,46 +6355,46 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,20 +6407,20 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,11 +6433,11 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -6446,11 +6446,11 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -6459,37 +6459,37 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -6498,24 +6498,24 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -6524,24 +6524,24 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-681422251338674177</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,20 +6550,20 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,137 +6602,137 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B480" t="n">
         <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,7 +6745,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,20 +6758,20 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,76 +6784,76 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-737703959993913344</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-737753796202385408</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-737755886211477504</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-737784335567364096</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-737884729626791936</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,7 +6875,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-737979350088323072</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,24 +6914,24 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,46 +6953,46 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,24 +7005,24 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
         <v>0</v>
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,11 +7044,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -7057,46 +7057,46 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,37 +7109,37 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,20 +7161,20 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,33 +7187,33 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,33 +7239,33 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,33 +7278,33 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,46 +7317,46 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,46 +7369,46 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-811198180654272512</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,24 +7434,24 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
         <v>1</v>
@@ -7460,33 +7460,33 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,46 +7499,46 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,20 +7551,20 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,46 +7577,46 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,20 +7642,20 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,37 +7668,37 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
         <v>1</v>
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,59 +7720,59 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,46 +7785,46 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,11 +7837,11 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
         <v>1</v>
@@ -7850,11 +7850,11 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
         <v>1</v>
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,20 +7876,20 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,11 +7928,11 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,11 +7967,11 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C580" t="n">
         <v>1</v>
@@ -7980,33 +7980,33 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,11 +8019,11 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,20 +8032,20 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,20 +8058,20 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,24 +8097,24 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,46 +8123,46 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,11 +8175,11 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -8188,11 +8188,11 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,11 +8227,11 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -8240,20 +8240,20 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,20 +8279,20 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,20 +8344,20 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,20 +8370,20 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,11 +8487,11 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,37 +8526,37 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,33 +8630,33 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,11 +8669,11 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
         <v>1</v>
@@ -8682,20 +8682,20 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B635" t="n">
         <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,37 +8721,37 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
         <v>0</v>
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,46 +8773,46 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B644" t="n">
         <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,50 +8851,50 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -8903,20 +8903,20 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,33 +8968,33 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B658" t="n">
         <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,33 +9007,33 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,33 +9098,33 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,20 +9163,20 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B672" t="n">
         <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,20 +9215,20 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,24 +9267,24 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
         <v>1</v>
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,46 +9345,46 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B687" t="n">
         <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B688" t="n">
         <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,33 +9462,33 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B695" t="n">
         <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,24 +9540,24 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B701" t="n">
         <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
         <v>0</v>
@@ -9566,33 +9566,33 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B704" t="n">
         <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,46 +9631,46 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B709" t="n">
         <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,11 +9683,11 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,14 +9696,14 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -9716,17 +9716,17 @@
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,20 +9735,20 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,24 +9761,24 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,33 +9839,33 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B724" t="n">
         <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B725" t="n">
         <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,20 +9878,20 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-780951872647475200</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B727" t="n">
         <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-833891988315336704</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-833912149630078976</t>
+          <t>t-935334721793306624</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,13 +9930,39 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
+          <t>t-935382314166693889</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>t-928096679089209344</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
           <t>t-940573035752386560</t>
         </is>
       </c>
-      <c r="B731" t="n">
-        <v>1</v>
-      </c>
-      <c r="C731" t="n">
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
